--- a/DOWNLOADS/EDITAIS/U_102158_E_900352025_02-10-2025_09h00m/U_102158_E_900352025_02-10-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_102158_E_900352025_02-10-2025_09h00m/U_102158_E_900352025_02-10-2025_09h00m_master.xlsx
@@ -115,40 +115,40 @@
     <t>Suporte Monitor Vídeo Suporte Monitor Vídeo Material: Aço Carbono, Acabamento Superficial: Pintura Eletrostática, Tipo: Bandeja Dupla, Capacidade Carga: 10KG, Características Adicionais: Regulagem De Altura E Movimentos Lateraiis</t>
   </si>
   <si>
-    <t>PROJETOR MULTIMIDIA, novo e sem uso anterior, com as seguintes características: 1.1. Destinado ao uso normal em ambiente tropical com umidade relativa na faixa de 20 a 80% (sem condensação) e temperatura ambiente na faixa de 10 a 32º C; 1.2. Brilho de 3.800 lumens; 1.3. Resolução nativa mínima de 1280x800 (WXGA); 1.4. Contraste de, pelo menos, 16.000:1; 1.5. Tecnologia 3 LCD; 1.6. Zoom manual de 1,2 vezes; 1.7. Foco manual; 1.8. Capacidade de projeção de imagens de 33” até 320” ou maior; 1.9. Compatível com NTSC/PAL-M/SECAM; 1.10. Correção de trapézio vertical em + ou – 30º; 1.11. Ventilador com ruído máximo de 28/37 Db; 1.12. Conexões de entrada/saída: 1X USB-A, 1 USB-B, 1 LAN, 2 HDMI, 2 VGA, 1 RS-232C, 1 Wireless Port opcional 1.13. Alimentação de energia 110/115 V e 220/240 V. 1.14. Peso máximo de 2,8 Kg; 1.15. Dimensões aproximadas: 302 X 87 X 249 MM (L X A X P) 1.16. Modo de projeção frontal e teto; 1.17. Lâmpada com duração estimada de 8.000 (oito mil) horas ou mais no modo normal e 17.000 horas em modo Eco; 1.18. Suportando resolução de entrada de 1600x900 ou superior; 1.19. Suporte a 1 bilhão de cores ou mais. 2. O modelo do equipamento deverá constar do site do fabricante, sendo conferido durante o certame. ITENS QUE DEVERÃO SER FORNECIDOS COM O EQUIPAMENTO 3. O equipamento deverá vir acompanhado de: 3.1. Controle remoto sem fio, com bateria ou equivalente; 3.2. Cabo de energia; 3.3. Manual do usuário. DA GARANTIA EXIGIDA 4. Garantia total DO FABRICANTE do equipamento mínima de 1 (um) ano – 12 (doze) meses – no projetor e 90 (noventa) dias na lâmpada, válida dentro do território nacional, contada a partir da data do recebimento do mesmo pela FZEA. 4.1. O atendimento no período coberto pela garantia descrita acima inclui mão de obra, peças e em caso de necessidade de manutenção fora das dependências da FZEA, transportes e seguros também se aplicam a mesma garantia, sem nenhum ônus adicional à FZEA; 4.2. A licitante deverá apresentar o certificado de garantia do fabricante do equipamento no ato de entrega da documentação; 4.3. O fornecedor se responsabilizará pelo transporte (ida e volta) do equipamento em caso de manutenção em garantia, caso a assistência técnica não seja na cidade de Pirassununga, SP; 4.4. O prazo para retorno do equipamento em garantia não deverá ser superior a 15 (quinze) dias corridos, contados a partir da retirada do equipamento.</t>
-  </si>
-  <si>
-    <t>Fone de ouvido novo e sem uso anterior, com as seguintes especificações: 1.1. Tipo headphone sem fio (wireless); 1.2. Corpo em plástico, na cor preta, ergonômico; 1.3. Bateria tipo Lithium-Ion Polymer, equivalente ou superior; 1.4. Com microfone acoplado; 1.5. Sensibilidade do driver a 1KHz1mw de 95dB ou maior; 1.6. Com driver entre 32 e 40mm; 1.7. Impedância de 32 ohms; 1.8. Com peso máximo de 260g; 1.9. Tempo de reprodução de 30 horas ou mais; 1.10. Padrão bluetooth HFP V1.6, HSP V1.2, A2DP V1.2, AVRCP V1.4 ou mais recentes; 1.11. Potência de emissão de bluetooth 0-4 dbm ou maior; 1.12. Acolchoado, com almofada em couro PU; 1.13. Com haste ajustável; 1.14. Tipo headset sem led, sendo permitido somente LED indicativo de “Power On”; 1.15. Com proteção auricular; 1.16. Com conexão via bluetooth, não sendo aceitos em plugues de áudio analógicos ou USB; 1.17. Frequência 20 a 20.000hz. 2. Qualidade 2.1. O equipamento deverá ser acondicionado em material apropriado (caixa) que garanta a integridade do produto; DA GARANTIA EXIGIDA 3. Garantia total DO FABRICANTE do equipamento mínima de 1 (um) ano – 12 (doze) meses –, válida dentro do território nacional, contada a partir da data do recebimento do mesmo pela FZEA; 3.1. O atendimento no período coberto pela garantia descrita acima inclui mão de obra, peças e em caso de necessidade de manutenção fora das dependências da FZEA, transportes e seguros também se aplicam à mesma garantia, sem nenhum ônus adicional à FZEA. 3.2. A licitante arrematante deverá apresentar o certificado de garantia do fabricante do equipamento no ato de entrega da documentação. 3.3. O fornecedor se responsabilizará pelo transporte (ida e volta) do equipamento em caso de manutenção em garantia, caso a assistência técnica não seja na cidade de Pirassununga, SP. 3.4. O prazo para retorno do equipamento em garantia não deverá ser superior a 15 (quinze) dias corridos, contados a partir da retirada do equipamento.</t>
-  </si>
-  <si>
-    <t>Monitor de vídeo novo e sem uso anterior, com as seguintes especificações: 1.1. Tecnologia LED, ou LED IPS, ou mais moderna, não sendo aceitos com tecnologia LCD, plasma ou anteriores; 1.2. Com diagonal nominal de 23 polegadas ou maior; 1.3. Resolução em Full HD de 1920x1080, ou superior, em 100Hz ou mais; 1.4. Tempo de resposta de 8ms, ou menor; 1.5. Controles de ajuste digitais, tipo OSD em Português; 1.6. Em formado Widescreen; 1.7. 1 (uma) ou mais entradas de sinal digital em conector HDMI ou Display Port, sendo aceitos quaisquer outros formatos de entrada em qualquer quantidade; 1.8. Tela antirreflexiva; 1.9. Brilho de 250 CD/m², ou maior; 1.10. Contraste de 1.500:1, ou maior; 1.11. Ângulo de visão de 170º na horizontal e 170º na vertical, ou maiores; 1.12. Capacidade de reprodução de 16,7 milhões de cores, ou mais; 1.13. Compatibilidade Plug &amp; Play; 1.14. Fonte de alimentação suportando tensões AC 100-230 V; 1.15. O monitor deverá possuir furação VESA 100x100 na parte traseira. ITENS QUE DEVERÃO SER FORNECIDOS COM O EQUIPAMENTO 2. Manual em português. 3. Cabo de força AC. 4. Cabo de dados digital HDMI ou Display Port, em conformidade com a entrada do monitor, e cabo D-Sub, caso o monitor possua essa entrada. DA GARANTIA EXIGIDA 5. Garantia total DO FABRICANTE do equipamento mínima de 1 (um) ano – 12 (doze) meses – s, válida dentro do território nacional, contada a partir da data do recebimento do mesmo pela FZEA; 5.1. O atendimento no período coberto pela garantia descrita acima inclui mão de obra, peças e em caso de necessidade de manutenção fora das dependências da FZEA, transportes e seguros também se aplicam à mesma garantia, sem nenhum ônus adicional à FZEA. 5.2. A licitante arrematante deverá apresentar o certificado de garantia do fabricante do equipamento no ato de entrega da documentação. 5.3. O fornecedor se responsabilizará pelo transporte (ida e volta) do equipamento em caso de manutenção em garantia, caso a assistência técnica não seja na cidade de Pirassununga, SP. 5.4. O prazo para retorno do equipamento em garantia não deverá ser superior a 15 (quinze) dias corridos, contados a partir da retirada do equipamento. DA CONFERÊNCIA 6. O modelo do equipamento deverá constar do site do fabricante, sendo conferido durante o certame.</t>
-  </si>
-  <si>
-    <t>Fonte de alimentação para Microcomputador nova e sem uso anterior, com as seguintes características: 1.1. Padrão ATX 2.2 ou superior; 1.2. Potência nominal real mínima de 250 W RMS; 1.3. Com chave “on/off” traseira; 1.4. Seleção de tensão 110/115 V e 220/240 V, automática; 1.5. Possuindo, no mínimo, os seguintes conectores: 1.5.1. 4 (quatro) para dispositivos SATA, SEM USO DE ADAPTADORES, 1.5.2. 1 (um) conector P4 quadrado (12 V adicional para CPU), 1.5.3. 1 (um) ATX de 24 pinos para placa-mãe; 1.5.4. Será aceito qualquer outro tipo de conector, em qualquer quantidade. 1.6. Pelo menos, 1 (uma) ventoinha de 120 mm ou 140 mm, não sendo aceita solução com ventoinhas de 80 mm; 1.7. Eficiência de carga de, pelo menos, 80%; 1.8. Proteção contra sobretensão (OVP), sobrecarga de energia (OPP) e curto-circuito (SCP); 1.9. Tecnologia para redução de ruídos. 2. O modelo deverá constar do site do fabricante, sendo conferido durante o certame. 3. É recomendável que os equipamentos não contenham substâncias perigosas como mercúrio (Hg), chumbo (Pb), cromo hexavalente (Cr(VI)), cádmio (Cd), bifenil polibromados (PBBs), éteres difenil-polibromados (PBDEs) em concentração acima da recomendada na diretiva RoHS (Restriction of Certain Hazardous Substances). 4. Garantia total DO FABRICANTE do equipamento mínima de 1 (um) ano – 12 (doze) meses –, válida dentro do território nacional, contada a partir da data do recebimento do mesmo pela FZEA; 4.1. O atendimento no período coberto pela garantia descrita acima inclui mão de obra, peças e em caso de necessidade de manutenção fora das dependências da FZEA, transportes e seguros também se aplicam à mesma garantia, sem nenhum ônus adicional à FZEA. 4.2. A licitante arrematante deverá apresentar o certificado de garantia do fabricante do equipamento no ato de entrega da documentação. 4.3. O fornecedor se responsabilizará pelo transporte (ida e volta) do equipamento em caso de manutenção em garantia, caso a assistência técnica não seja na cidade de Pirassununga, SP. 4.4. O prazo para retorno do equipamento em garantia não deverá ser superior a 15 (quinze) dias corridos, contados a partir da retirada do equipamento.</t>
-  </si>
-  <si>
-    <t>Pendrive novo e sem uso anterior, com as seguintes especificações: 1.1. Conexão USB 3.2 ou superior. 1.2. Capacidade mínima de 128GB. 1.3. Com interface dual (Micro-USB – USB-C – e USB 3.0 ou superior), podendo através de adaptadores ou com os dois conectores no corpo do pendrive. 1.4. O conector a ser encaixado na porta USB deverá ser de metal, não sendo aceitos conectores de plástico. DA GARANTIA EXIGIDA 2. Garantia total DO FABRICANTE do equipamento mínima de 1 (um) ano – 12 (doze) meses –, válida dentro do território nacional, contada a partir da data do recebimento do mesmo pela FZEA; 2.1. O atendimento no período coberto pela garantia descrita acima inclui mão de obra, peças e em caso de necessidade de manutenção fora das dependências da FZEA, transportes e seguros também se aplicam à mesma garantia, sem nenhum ônus adicional à FZEA. 2.2. A licitante arrematante deverá apresentar o certificado de garantia do fabricante do equipamento no ato de entrega da documentação. 2.3. O fornecedor se responsabilizará pelo transporte (ida e volta) do equipamento em caso de manutenção em garantia, caso a assistência técnica não seja na cidade de Pirassununga, SP. 2.4. O prazo para retorno do equipamento em garantia não deverá ser superior a 15 (quinze) dias corridos, contados a partir da retirada do equipamento.</t>
-  </si>
-  <si>
-    <t>Notebook novo em sem uso anterior, com finalidade de uso: Microcomputador portátil. 2. Processador: 2.1. Arquitetura x86 com suporte a 32 e 64 bits; 2.2. Com litografia de 7nm ou menor; 2.3. Com no mínimo 10 (dez) núcleos para processadores Intel e 8 (oito) para processadores AMD; 2.4. Com no mínimo 12 (doze) threads; 2.5. Frequência de Clock: 2.5.1. Real, igual ou superior a 4.6 GHz no modo turbo para processadores Intel e 4.4 GHz para processadores AMD; 2.5.2. Atingindo no mínimo 21.000 (vinte e um mil) pontos no índice Passmark CPU (https://www.cpubenchmark.net/cpu_lookup.php?cpu=AMD+Ryzen+5+7545U&amp;id=6725). 2.6. Com cache mínimo de 16 MB; 2.7. Deverá possuir tecnologia que permita que os núcleos aumentem sua própria frequência de operação durante os picos de demanda se estiver trabalhando abaixo dos limites nominais de temperatura, corrente e desempenho; 2.8. O processador deverá possuir controladores de memória e gráfico integrado. DA IDENTIFICAÇÃO DO NOTEBOOK NA PROPOSTA ELETRÔNICA 2.9. TODOS OS LICITANTES deverão declarar em sua proposta, no campo “Descrição Detalhada do Objeto Ofertado”, a marca e o modelo do processador ofertado. 2.9.1. A ausência desta informação acarretará na desclassificação da proposta. 3. BIOS 3.1. Desenvolvida em conformidade com a especificação UEFI 2.1 (http://www.uefi.org) 3.1.1. A compatibilidade do fabricante com o padrão UEFI deve ser comprovada através do site http://www.uefi.org/members, na categoria PROMOTERS ou CONTRIBUTORS; 3.2. Possuir senhas de Setup para Power On e Administrador; 3.3. O BIOS deverá ser do tipo Flash Memory, utilizando memória não volátil e eletricamente reprogramável. 4. Memória RAM 4.1. Deverá ser fornecido no mínimo 16GB de memória RAM por computador; 4.2. Barramento de memória no mínimo do tipo DDR4 ou mais moderna, 2.666 MHz ou superior, sem uso de overclock; 4.3. Permitir expansão até 32GB no mínimo; 4.4. Deverá possuir pelo menos 1 (um) slot livre para expansão de memória; 4.5. Não serão aceitos equipamentos com memória soldada à placa-mãe. 5. Armazenamento 5.1. Controladora de discos integrada a placa mãe, padrão PCI-E M.2 NVMe; 5.1.1. 1 (um) SSD de 1 TB ou maior em conector M2 NVMe, não sendo aceitas adaptações ou slot destinado a placa wireless; 5.1.2. Deverá permitir a instalação posterior de dispositivo de armazenamento adicional: HD ou SSD tipo SATA, ou NVMe tipo M.2, interno, não sendo aceitas adaptações ou slot destinado a placa wireless. 6. Vídeo 6.1. Controladora de vídeo integrada ao processador ou dedicada; 6.2. Com pelo menos 4GB de memória de vídeo GDDR5 ou superior, no caso de ser dedicada, ou com tamanho configurável, compartilhada com a memória RAM; 6.3. Controladora de vídeo tipo Full HD ou superior; 6.4. Permitir resolução de até 4k (3840x2160) no mínimo, com taxa de 60Hz ou superior, quando conectado a monitor externo. 7. Teclado 7.1. Integrado ao gabinete do equipamento, não sendo aceitas soluções externas; 7.2. Padrão ABNT2; 7.3. Com teclado numérico; 7.4. A impressão sobre as teclas deverá ser do tipo permanente, não podendo apresentar desgaste por abrasão ou uso prolongado; 7.5. Com sistema de proteção contra derramamento de líquidos. 8. Portas em quantidade mínima: 8.1. 1 (uma) uma porta do tipo HDMI 1.4; 8.2. 2 (duas) duas portas USB tipo A, sendo 1 (uma) 2.0 e 1 (uma) 3.2, ou superiores; 8.3. 1 (uma) uma porta USB tipo C, 3.2 ou superior; 8.4. 1 (uma) uma porta de áudio; 8.5. Alimentação de energia. 9. Mouse tipo touchpad, integrado ao gabinete do equipamento. 10. Gabinete: 10.1. Deverá possuir local apropriado, já desenvolvido no projeto do produto, para colocação de lacres ou cadeados mecânicos (travas tipo “Kensington” ou similares), não sendo aceito adaptações, usinagens em geral, furações, emprego de adesivos, fitas adesivas ou quaisquer outros procedimentos ou emprego de materiais inadequados ou que visem adaptar forçadamente o equipamento ou suas partes para atingir esta funcionalidade; 10.2. Altura máxima de 20mm quando estiver fechado. 11. Webcam: 11.1. Integrada ao corpo do equipamento, não sendo aceita solução externa; 11.2. Padrão HD de 1280x720. 12. Tela: 12.1. Integrada ao gabinete do equipamento; 12.2. Com tamanho máximo de 15,6; 12.3. Com resolução mínima de 1920x1080 (Full HD); 12.4. Com retro iluminação por LED. 13. Rede 13.1. Padrão Gigabit Ethernet 10/100/1000 Mbps ou superior; 13.2. Em conector RJ-45; 13.3. Integrada ao gabinete do equipamento, não sendo aceitas soluções externas. 14. Wi-Fi 14.1. Padrão 6 802.11 ax ou superior; 14.2. Integrada ao gabinete do equipamento, não sendo aceitas soluções externas. 15. Bluetooth 15.1. Integrada ao gabinete do equipamento; 15.2. Versão 5 ou superior; 15.3. Integrada ao gabinete do equipamento, não sendo aceitas soluções externas. 16. Áudio 16.1. Controladora de som onboard, de alta definição; 16.2. Com dois alto-falantes de alta precisão integrado ao gabinete; 16.3. Com microfones digitais integrado ao gabinete; 16.4. Deve possuir entrada para microfone e saída para fones de ouvido (sendo aceita interface combo). 17. Fonte 17.1. Fonte de alimentação externa, bivolt, com chaveamento automático de tensão na faixa 100-240V e 50/60 Hz; 17.2. Com potência suficiente para o equipamento; 17.3. Deve vir acompanhado de cabo de alimentação com plug tripolar em conformidade com a norma NBR 14136. 18. Bateria com pelo menos 40 Wh. 19. Peso do equipamento NÃO poderá ser superior a 2.6 Kg. 20. Sistema Operacional 20.1. O microcomputador deverá ser entregue com licença de uso original do sistema operacional Windows 11, com licença de uso e mídia de instalação física ou via internet; 20.2. O equipamento e todos os seus periféricos deverão ser compatíveis com o sistema operacional Windows na versão 11; 20.3. Caso a licença de uso não seja gravada na memória flash da BIOS (possibilitando a leitura quando feito a reinstalação do Sistema Operacional), poderá ser digital, adquirida por meio OEM, com etiqueta contendo a chave de instalação colada na carcaça do equipamento. 21. Qualidade: As unidades do equipamento deverão ser entregues devidamente acondicionadas em embalagens individuais adequadas, que utilizem materiais recicláveis (identificada), de forma a garantir a integridade do produto e a máxima proteção durante o transporte e a armazenagem; ITENS QUE DEVERÃO SER FORNECIDOS COM O NOTEBOOK 22. O equipamento DEVERÁ VIR ACOMPANHADO DE MOCHILA PARA TRANSPORTE, acolchoada, com 1 compartimento para o notebook e pelo menos mais 2 compartimentos livres. 23. Carregador bivolt, compatível com o equipamento. 24. O equipamento deverá vir acompanhado de mouse, com as seguintes características: 24.1. Botão de rolagem emborrachado; 24.2. Padrão Bluetooth sem fio (conexão direta com o notebook, que não use receptor que ocupe porta USB); 24.3. Deverá possuir sensor de LED ou LASER; 24.4. Resolução mínima de 1.000 dpi por hardware; 24.5. Com, no mínimo, 3 (três) botões, sendo 2 (dois) na parte superior e 1 (um) botão de scroll. 25. Manuais de todos os dispositivos e softwares que acompanham o conjunto. DA GARANTIA EXIGIDA 26. Garantia total DO FABRICANTE do equipamento mínima de 12 (doze) meses, válida dentro do território nacional, contada a partir da data do recebimento do mesmo pela FZEA. 26.1. O atendimento no período coberto pela garantia descrita acima inclui mão de obra, peças, com atendimento local, e em caso de necessidade de manutenção fora das dependências da FZEA, transportes e seguros também se aplicam à mesma garantia, sem nenhum ônus adicional à FZEA; 26.2. Todos os drivers para os sistemas operacionais suportados devem estar disponíveis para download no sítio site do fabricante do equipamento; 26.3. A licitante arrematante deverá apresentar o certificado de garantia do fabricante do equipamento no ato de entrega da documentação; 26.4. O fornecedor se responsabilizará pelo transporte (ida e volta) do equipamento em caso de manutenção em garantia, caso a assistência técnica não seja na cidade de Pirassununga, SP; 26.5. O prazo para retorno do equipamento em garantia não deverá ser superior a 15 (quinze) dias corridos, contados a partir da retirada do equipamento. PARA O NOTEBOOK - DOCUMENTAÇÃO PARA SER APRESENTADA ANTES DA HOMOLOGAÇÃO, CABENDO SOMENTE À LICITANTE ARREMATANTE 27. Certificado de garantia, informando que o fabricante irá prestar a garantia solicitada, conforme especificado neste edital. 27.1. Caso a garantia seja prestada por assistência técnica devidamente credenciada, apresentar declaração do fabricante comprovando as mesmas. Apresentar declaração do fabricante destinado a este órgão e este processo. 28. Autorização para intervenção técnica no equipamento durante o período de garantia, sem revogação da validade desta, a ser feita por técnicos habilitados da USP, seja para inspeção, instalação de interfaces, memória ou unidades de disco adicionais. 28.1. No caso de instalação, feitas por técnicos habilitados pela USP, de interfaces, memória ou unidades de disco adicionais, a garantia desses componentes será dos respectivos fornecedores, não onerando o fornecedor do microcomputador. 28.2. O equipamento não deverá conter lacres nas tampas, peças, conectores, módulos de memória, parafusos, enfim, em nenhuma parte removível.</t>
-  </si>
-  <si>
-    <t>Webcam nova e sem uso anterior, com as seguintes especificações: 1.1. Para videochamada e gravação em HD ou superior; 1.2. Com resolução HD (1280x720) ou superior; 1.3. Permitindo captura em 60fps ou maior; 1.4. Permitindo captura de vídeo, foto e áudio; 1.5. Com interface USB 2.0 ou superior. DA GARANTIA EXIGIDA 2. Garantia total DO FABRICANTE do equipamento mínima de 1 (um) ano – 12 (doze) meses – s, válida dentro do território nacional, contada a partir da data do recebimento do mesmo pela FZEA; 2.1. O atendimento no período coberto pela garantia descrita acima inclui mão de obra, peças e em caso de necessidade de manutenção fora das dependências da FZEA, transportes e seguros também se aplicam à mesma garantia, sem nenhum ônus adicional à FZEA. 2.2. A licitante arrematante deverá apresentar o certificado de garantia do fabricante do equipamento no ato de entrega da documentação. 2.3. O fornecedor se responsabilizará pelo transporte (ida e volta) do equipamento em caso de manutenção em garantia, caso a assistência técnica não seja na cidade de Pirassununga, SP. 2.4. O prazo para retorno do equipamento em garantia não deverá ser superior a 15 (quinze) dias corridos, contados a partir da retirada do equipamento.</t>
-  </si>
-  <si>
-    <t>Monitor de vídeo novo e sem uso anterior, com as seguintes especificações: 1.1. Tecnologia LED IPS, ou mais moderna, não sendo aceitos com tecnologia LCD, plasma ou anteriores; 1.2. Padrão 4k Ultra HD; 1.3. Com diagonal nominal de 27 polegadas ou maior; 1.4. Tela tipo “infinita”, ou seja, com bordas finas, e distância de 7mm, no máximo, entre a borda do monitor e a imagem; 1.5. Resolução em Full HD 4k de 3840x2160, ou superior, em 60Hz ou mais; 1.6. Dot Pitch de 0,1554mm X 0,1554mm; 1.7. 163 Pixels Por Polegada; 1.8. Tempo de resposta de 5ms, ou menor; 1.9. Controles de ajuste digitais, tipo OSD em Português; 1.10. Ajustes de imagem para inclinação, rotação e extensão vertical, quando montada em suporte ou na base original; 1.11. Em formado Widescreen; 1.12. 1 (uma) HDMI e 1 (uma) Display Port, podendo ter 1 (uma) Mini DP opcional; 1.13. 01 (uma) saída de áudio, caso o monitor tenha entrada de áudio analógica; 1.14. Tela antirreflexiva; 1.15. Brilho de 250 CD/m², ou maior; 1.16. Contraste de 1.300:1, ou maior; 1.17. Ângulo de visão de 178º na horizontal e 178º na vertical, ou maiores; 1.18. Capacidade de reprodução de 16,7 milhões de cores, ou mais; 1.19. Compatibilidade Plug &amp; Play; 1.20. Fonte de alimentação suportando tensões AC 100-230 V; 1.21. O monitor deverá possuir furação VESA 100x100 na parte traseira. ITENS QUE DEVERÃO SER FORNECIDOS COM O EQUIPAMENTO 2. Manual de instalação e operação em português e drivers de instalação, podendo ser em sítioweb. 3. Cabo de força AC. 4. Cabo de dados HDMI ou Display Port, em conformidade com a entrada do monitor. 5. Cabo de dados Display Port para Mini DP, caso possua entrada Mini DP. DA GARANTIA EXIGIDA 6. Garantia total DO FABRICANTE do equipamento mínima de 1 (um) ano – 12 (doze) meses – s, válida dentro do território nacional, contada a partir da data do recebimento do mesmo pela FZEA; 6.1. O atendimento no período coberto pela garantia descrita acima inclui mão de obra, peças e em caso de necessidade de manutenção fora das dependências da FZEA, transportes e seguros também se aplicam à mesma garantia, sem nenhum ônus adicional à FZEA. 6.2. A licitante arrematante deverá apresentar o certificado de garantia do fabricante do equipamento no ato de entrega da documentação. 6.3. O fornecedor se responsabilizará pelo transporte (ida e volta) do equipamento em caso de manutenção em garantia, caso a assistência técnica não seja na cidade de Pirassununga, SP. 6.4. O prazo para retorno do equipamento em garantia não deverá ser superior a 15 (quinze) dias corridos, contados a partir da retirada do equipamento. DA CONFERÊNCIA 7. O modelo do equipamento deverá constar do site do fabricante, sendo conferido durante o certame.</t>
-  </si>
-  <si>
-    <t>Microcomputador novo em sem uso anterior, com finalidade de uso: Estação de Trabalho. 2. Microprocessador com as características mínimas: 2.1. Compatível com Intel Core i9 14900F, equivalente ou superior; 2.2. Com pelo menos 24 cores e 32 threads; 2.3. Com clock de, pelo menos, 2 GHz em modo normal e 5,8 GHz em modo turbo; 2.4. Litografia de 7 nm ou mais recente; 2.5. Com pelo menos 32 MB de cache; 2.6. Deverá ser compatível com o padrão ACPI versão 1.0 ou superior e deverá possuir controle automático, para evitar superaquecimento; 2.7. O processador não poderá ter nenhum tipo de selo em sua parte superior, devendo conter somente o material de interface (pasta térmica ou equivalente), sendo conferido no recebimento do equipamento; 2.8. Atingindo no mínimo 46.000 (quarenta e seis mil) pontos no índice Passmark CPU https://www.cpubenchmark.net/cpu_lookup.php?cpu=Intel+Core+i9-14900F&amp;id=5833. 3. Sistema de resfriamento suportando o microprocessador acima, com as seguintes características mínimas: 3.1. Tipo water cooler; 3.2. Com pelo menos 2 (duas) ventoinhas; 3.3. Ruído máximo de 28.8 dBA. 4. Placa-mãe suportando o microprocessador acima, com as seguintes características mínimas: 4.1. Baseada em Chipset compatível com Intel B760M, equivalente ou superior; 4.2. No mínimo 4 slots de memória DDR-5, suportando tecnologia Dual-Channel ou superior e um máximo de memória de 128 GB ou mais; 4.3. Formato ATX-Full ou Micro-ATX, não sendo aceitos os formatos mini-ITX e Barebone; 4.4. Pelo menos 3 (três) slots, sendo: 4.4.1. PCI-Express X-16: 1 (um); 4.4.2. PCI-Express X-1: 2 (dois). 4.5. Controladora de Disco Rígido tipo SATA-III ou superior onboard, com no mínimo 4 portas, suportando taxas de transferências de, no mínimo, 6 Gb/s; 4.6. Pelo menos 1 slot padrão M.2 NVMe; 4.7. Interface de rede local onboard, padrão IEEE 802.3, Gigabit Ethernet 10/100/1000 Mbps ou superior, em conector RJ-45, suportando o modo de operação full duplex, autosense; 4.8. Controladora de som onboard, de alta definição, com suporte a HD Áudio de 7.1 canais, com pelo menos 3 saídas traseiras; 4.9. Pelo menos 6 (seis) portas USB, sendo: 4.9.1. Pelo menos 2 (duas) 3.2 traseiras; 4.9.2. Pelo menos 2 (duas) 3.2 frontais. 5. Controladora de vídeo com as seguintes características mínimas: 5.1. Acelerador gráfico compatível com GeForce RTX 5070, equivalente ou superior; 5.2. Com um valor de pelo menos 32.000 no Average G3D Mark no website PassMark Software (https://www.videocardbenchmark.net/high_end_gpus.html); 5.3. Compatível com protocolos de algoritmos de IA como Pytorch e Tensorflow; 5.4. Utilizando o barramento PCI-E 5.0; 5.5. Com memória mínima de 12GB GDDR7 ou superior; 5.6. Com tecnologia de 192 bits ou superior; 5.7. Com pelo menos 6144 CUDA cores; 5.8. Suportando resolução de 7680x4320 ou superior; 5.9. Clock básico de 2512 MHz ou superior. 6. Memória com as seguintes características mínimas: 6.1. Em 1 (um) módulo de 32 GB; 6.2. Padrão DDR-5 5600 MHz ou superior sem uso de overclock; 6.3. Com dissipador de calor acoplado, original do fabricante, não sendo aceitos dissipadores instalados posteriormente. 7. Armazenamento, em 2 (duas) unidades, em conformidade com a placa-mãe ofertada: 7.1. Principal, com as seguintes características mínimas: 7.1.1. Interno; 7.1.2. Padrão SSD M.2, 2280, NVMe tipo 4x4 ou superior; 7.1.3. Capacidade de armazenamento mínima de 1TB; 7.1.4. Velocidade de gravação mínima: 5500 mbps; 7.1.5. Velocidade de leitura mínima: 7000 mbps; 7.2. Secundário, com as seguintes características mínimas: 7.2.1. Interno; 7.2.2. Capacidade de armazenamento mínima de 4TB; 7.2.3. Padrão SATA (com velocidade de rotação mínima de 5.400 rpm e buffer mínimo de 256MB) ou SSD M.2 (com as mesmas características do sistema de armazenamento principal). 8. Gabinete contendo as com as seguintes características mínimas: 8.1. Suportando a placa-mãe e processador ofertados, com uso de water cooler; 8.2. Suportando fonte de alimentação com tensão bivolt; 8.3. Deverá possuir pelo menos 2 (duas) baias para HD de 3 ½”; 8.4. A placa mãe deverá poder ser fixada sem ter nenhum componente do gabinete sobrepondo a mesma; 8.5. O gabinete não poderá ter acabamento que possam causar acidentes (cortes) ao manusear os componentes internos. 8.6. Baias traseiras suficientes para permitir a instalação de placas em todos os slots da placa-mãe ofertada; 8.7. Pelo menos 1 (uma) porta USB frontal, no padrão USB 3.x, e 1(uma) porta USB-C, sendo aceitas outras portas em qualquer quantidade; 8.8. Caso o gabinete possua caixas de som integradas, não será necessária a entrega de caixas de som externas. 9. Fonte de alimentação que atenda o sistema descrito acima, com as seguintes características: 9.1. Potência nominal real mínima de 850 W RMS; 9.2. Do tipo modular ou semi-modular; 9.3. Seleção de tensão 110/115 V e 220/240 V, automático; 9.4. Possuindo, no mínimo, os seguintes conectores: 9.4.1. 1 (um) ATX de 20+4 pinos para placa-mãe; 9.4.2. 3 (três) EPS (12 V adicional para CPU/PCI-E); 9.4.3. 4 (quatro) para dispositivos SATA; 9.4.4. Será aceito qualquer outro tipo de conector, em qualquer quantidade. 9.5. Pelo menos, 1 (uma) ventoinha de 120 mm ou 140 mm, não sendo aceita solução com ventoinhas de 80 mm; 9.6. Eficiência de carga de, pelo menos, 80%; 9.7. Proteção contra sobretensão (OVP), sobrecarga de energia (OPP) e curto-circuito (SCP); 9.8. Tecnologia para redução de ruídos. ITENS QUE DEVERÃO SER FORNECIDOS COM O MICROCOMPUTADOR 10. Mouse óptico com as seguintes características: 10.1. Tecnologia óptica com resolução mínima de 1.000 dpi; 10.2. Deve possuir 2 (dois) botões para seleção de objetos (click) e 1 (um) tipo scrollwheelpara rolagem; 10.3. Deve ser ambidestro (simétrico); 10.4. Conector padrão USB, sem o uso de adaptadores; 10.5. O mouse deverá possuir a cor seguindo os padrões do teclado; 10.6. Deverá ser sem fio (wireless); 10.7. Deverá possuir sensor de LED ou Laser; 10.8. Deverá usar o mesmo receptor sem fio e a mesma embalagem do teclado. 11. Teclado em conformidade com o equipamento ofertado, com as seguintes características: 11.1. Teclado com conjunto de no mínimo 104 teclas com teclado numérico e teclas de função na posição horizontal e acima das teclas numéricas/alfanuméricas; 11.2. Compatibilidade com o padrão ABNT2; 11.3. Conector padrão USB, sem o uso de adaptadores; 11.4. A impressão sobre as teclas deverá ser do tipo permanente, não podendo apresentar desgaste por abrasão ou uso prolongado; 11.5. O teclado deverá possuir a cor predominantemente preta, grafite ou cinza; 11.6. Deverá ser sem fio (wireless); 11.7. Resistente a derramamento de líquidos; 11.8. Regulagem de altura na parte traseira; 11.9. As teclas Insert, Home, PageUp, Delete, End e PageDown deverão estar dispostas na orientação Horizontal, não sendo aceitas na orientação Vertical; 11.10. SEM retroiluminação; 11.11. As teclas deverão ser de perfil baixo e silencioso; 11.12. Regulagem de altura na parte traseira; 11.13. Deverá usar o mesmo receptor sem fio e a mesma embalagem do mouse. 12. Caixas de som amplificadas, em conformidade com a placa de som ofertada, com via porta USB. Serão aceitas caixas de som incorporadas ao gabinete do equipamento. 13. Sistema Operacional 13.1. O microcomputador deverá ser entregue com licença de uso original do sistema operacional corporativo Windows na versão 11, Professional, com licença de uso e mídia de instalação física ou via internet; 13.2. O equipamento e todos os seus periféricos deverão ser compatíveis com o sistema operacional Windows nas versões 11, Professional; 13.3. O sistema operacional deverá vir pré-instalado de fábrica; 13.4. Caso a licença de uso não seja gravada na memória flash da BIOS (possibilitando a leitura quando feito a reinstalação do Sistema Operacional), poderá ser digital, adquirida por meio OEM, com etiqueta contendo a chave de instalação colada na carcaça do equipamento. 13.5. A licitante deverá declarar em sua proposta, no campo “Descrição Detalhada do Objeto Ofertado” a versão completa do Sistema Operacional ofertado. 14. Manuais e softwares (drivers) de configuração de todos os componentes. 15. Cabo de força padrão NBR 14136. 16. Acondicionamento em embalagem adequada. PARA CONFERÊNCIA DURANTE O CERTAME 17. O modelo dos componentes: placa-mãe, memória, processador, fonte de alimentação, placa de vídeo, gabinete e unidades de armazenamento do equipamento deverão constar do site dos respectivos fabricantes, sendo conferido durante o certame. 17.1. O fornecedor deverá indicar a marca, modelo e página de internet do produto ofertado para cada um destes itens, devendo constar a página completa do PRODUTO, e não somente do FABRICANTE. DA GARANTIA EXIGIDA 18. Garantia total DO FABRICANTE do equipamento mínima de 1 (um) ano, válida dentro do território nacional, contada a partir da data do recebimento do mesmo pela FZEA. 18.1. O atendimento no período coberto pela garantia descrita acima inclui mão de obra, peças e em caso de necessidade de manutenção fora das dependências da FZEA, transportes e seguros também se aplicam à mesma garantia, sem nenhum ônus adicional à FZEA; 18.2. A licitante arrematante deverá apresentar o certificado de garantia do fabricante do equipamento no ato de entrega da documentação; 18.3. O fornecedor se responsabilizará pelo transporte (ida e volta) do equipamento em caso de manutenção em garantia, caso a assistência técnica não seja na cidade de Pirassununga, SP; 18.4. O prazo para retorno do equipamento em garantia não deverá ser superior a 15 (quinze) dias corridos, contados a partir da retirada do equipamento. DOCUMENTAÇÃO PARA SER APRESENTADA ANTES DA HOMOLOGAÇÃO, CABENDO SOMENTE À LICITANTE ARREMATANTE 19. Certificado de garantia, conforme especificado neste edital. 20. Tabela de conferência de peças componentes do equipamento, ANEXA NESTE EDITAL. 21. Autorização para intervenção técnica no equipamento durante o período de garantia, sem revogação da validade desta, a ser feita por técnicos habilitados da FZEA, seja para inspeção, instalação de interfaces, memória ou unidades de disco adicionais. 21.1. No caso de instalação, feitas por técnicos habilitados pela FZEA/USP, de interfaces, memória ou unidades de disco adicionais, a garantia desses componentes será dos respectivos fornecedores, não onerando o fornecedor do microcomputador. 21.2. O equipamento não deverá conter lacres nas tampas, peças, conectores, módulos de memória, parafusos, enfim, em nenhuma parte removível.</t>
-  </si>
-  <si>
-    <t>Microcomputador novo em sem uso anterior, com finalidade de uso: Estação de Trabalho. 2. Tipo: Mini-PC 3. Processador 3.1. Arquitetura x86 com suporte a 32 e 64 bits; 3.2. Com litografia de 7nm ou menor; 3.3. Com no mínimo 8 (oito) núcleos e 16 (dezesseis) threads para processadores Intel, e 6 (seis) cores e 12 (doze) threads para processadores AMD; 3.4. Atingindo no mínimo 22.000 (vinte e dois mil) pontos no índice Passmark CPU (https://www.cpubenchmark.net/cpu_lookup.php?cpu=AMD+Ryzen+5+PRO+8500G&amp;id=6023). 3.5. Com cache mínimo de 16MB; 3.6. Com suporte a virtualização de I/O; 3.7. Com suporte a Criptografia AES New Instructions; 3.8. Deverá ter sido lançado no ano de 2024 ou posterior; 3.9. Deverá possuir tecnologia que permita que os núcleos aumentem sua própria frequência de operação durante os picos de demanda se estiver trabalhando abaixo dos limites nominais de temperatura, corrente e desempenho; 3.10. O processador deverá possuir controladores de memória e gráfico integrado; 3.11. A licitante deverá declarar em sua proposta, no campo “Descrição Detalhada do Objeto Ofertado”, a marca e o modelo do processador ofertado. 3.11.1. A ausência desta informação acarretará na desclassificação da proposta. 3.11.2. Não serão aceitos processadores destinados a notebooks. 4. Placa Mãe 4.1. Deve ser de projeto e fabricação exclusiva para o modelo ofertado, sendo computadores padrão mini desktop, não sendo aceitas soluções em regime de OEM, adaptações ou personalizações. Deverá apresentar declaração do fabricante destina a esse órgão e processo; 4.2. Deve possuir no mínimo 5 portas USB, sendo pelo menos:  1 (uma) do tipo A na versão 2.0 ou superior  3 (três) do tipo A na versão 3.2 ou superiores, sendo pelo menos 1 frontal  1 (uma) do tipo C  Não serão aceitos hubs, placas ou adaptadores; 4.3. Chip de segurança TPM versão 2.0 integrado para criptografia: 4.3.1. Não será aceita solução via firmware; 4.3.2. O fabricante do equipamento deverá mostrar ser membro do TCG Group comprovado através do link http://www.trustedcomputinggroup.org/members; 4.4. Deverá possuir slot M.2 conectado ao barramento PCIe x4 ou superior, para instalação de unidade de armazenamento SSD, suportando totalmente as unidades tipo NVMe, não sendo aceitas adaptações ou slot destinado a placa wireless; 4.5. Deverá permitir a instalação posterior de dispositivo de armazenamento adicional; 4.6. Deverá possuir pelo menos 1 (um) slot livre para expansão de memória. 5. BIOS 5.1. Desenvolvida em conformidade com a especificação UEFI 2.1 (http://www.uefi.org) 5.1.1. A compatibilidade do fabricante com o padrão UEFI deve ser comprovada através do site http://www.uefi.org/members, na categoria PROMOTERS ou CONTRIBUTORS; 5.2. Desenvolvida pelo mesmo fabricante do equipamento ou desenvolvida especificamente para o modelo de equipamento ofertado com direitos de Copyright®, comprovados através de atestado específico, fornecido pelo desenvolvedor da BIOS informando o modelo do equipamento; 5.3. Não serão aceitas soluções em regime de OEM, customizações ou apenas cessão de direitos limitados; 5.4. Possuir suporte a português e/ou inglês; 5.5. Possibilidade de habilitar/desabilitar portas USB individualmente; 5.6. Possuir senhas de Setup para Power On, Administrador e disco rígido; 5.7. Deverá possuir campo com número de série do equipamento; 5.8. Deverá possuir campo editável, com recurso para registro do número do patrimônio do equipamento; 5.9. Deverá possuir função na BIOS que permita formatar a unidade de armazenamento do microcomputador; 5.10. Deverá possuir função que permita que o equipamento seja ligado através do teclado, com uma ou mais portas USB identificadas para essa função; 5.11. O BIOS deverá ser do tipo Flash Memory, utilizando memória não volátil e eletricamente reprogramável; 5.12. A licitante vencedora deverá entregar os equipamentos com o logotipo da Faculdade de Zootecnia e Engenharia de Alimentos estampado na inicialização do BIOS do equipamento. 6. Memória RAM 6.1. Deverá ser fornecido no mínimo 16GB de memória RAM em um único módulo; 6.2. Barramento de memória no mínimo do tipo DDR4 3.200 MHz ou superior sem uso de overclock; 6.3. Permitir expansão até 64GB no mínimo; 6.4. Suportar tecnologia Dual Channel; 6.5. Deverá possuir pelo menos 2 slots, sendo pelo menos 1 slot livre, permitindo expansão de memória. 7. Armazenamento 7.1. Controladora de discos integrada a placa mãe, padrão NVMe e SATA III (caso não possua segundo slot padrão NVMe); 7.2. 1 (um) SSD de 500 GB ou maior em conector padrão M2 NVMe; 8. Vídeo 8.1. Controladora de vídeo integrada ao processador ou em placa dedicada; 8.2. Compatível com padrão Full HD ou superior; 8.3. Com 4GB de memória de vídeo GDDR5 no caso de ser dedicada, ou com tamanho configurável, compartilhada com a memória RAM; 8.4. Deve possuir ao menos duas portas tipo HDMI e/ou Display Port no corpo do equipamento, sem uso de adaptadores, para uso de 02 (dois) monitores simultaneamente com opção de modo duplicado ou extensão, sendo aceitas outras portas em qualquer quantidade; 8.5. Permitir resolução de até 4k (3840x2160) ou maior, com taxa de 60Hz ou superior. 9. Placa de Rede 9.1. No mínimo 01 (uma) interface de rede por computador conector RJ-45; 9.2. Interface de rede padrão Gigabit Ethernet suportando transmissão de 10/100/1000; 9.3. Padrão IEEE 802.3; 9.4. Possuir recurso que permita que o computador seja ligado remotamente, mesmo se estiver desligado, porém, conectado ao cabo rede; 9.5. Deverão possuir recursos de Wake on LAN (WOL). 10. Wi-Fi 10.1. Padrão Wi-Fi 6 802.11 ax ou superior; 10.2. Deverá ser conectada via slot M.2. 10.3. Deverá possui velocidade taxa de transferência de 2.400 Mbps ou superior. 10.4. Deverá ser Tri Band (2,40/5/6 GHz) 10.5. Integrada ao gabinete do equipamento. 11. Bluetooth 11.1. Versão 5 ou superior; 11.2. Integrada ao gabinete do equipamento. 12. Áudio 12.1. Controladora de áudio de alta-definição onboard; 12.2. Alto-falante de alta precisão integrado ao gabinete, não sendo aceitas caixas de som externas; 12.3. Deve possuir entrada para microfone e saída para fones de ouvido na parte frontal do equipamento; 12.4. Potência mínima de 1,0 Watt. 13. Gabinete 13.1. Padrão USFF – Ultra Small Form Factor, que permita a utilização na posição horizontal e vertical sem comprometer os componentes internos e o funcionamento do computador, com volume máximo de 1,2L; 13.2. Possuir botão liga/desliga na parte frontal; 13.3. O gabinete deverá ser fabricado em chapa metálica (única exceção aceita será a parte frontal), acabamento interno sem superfícies cortantes; 13.3.1. Todo e qualquer componente deverá obrigatoriamente ser travado mecanicamente, permanecendo em sua posição, qualquer que seja a condição em que estiver o equipamento (com ou sem tampa e mesmo de cabeça para baixo); 13.4. Deverá possuir sistema de refrigeração dimensionado para perfeita refrigeração do processador e demais componentes internos ao gabinete, para garantir a temperatura de funcionamento e vida útil dos componentes, considerando a operação na capacidade máxima do microprocessador em ambiente não refrigerado; 13.4.1. Não serão aceitos gabinetes que necessitem de entrada/saída de ar nas faces superior e laterais, podendo usar para a referida finalidade, apenas a face frontal e/ou traseira. 13.5. Deverá possuir local apropriado, já desenvolvido no projeto do produto, para colocação de lacres ou cadeados mecânicos (travas tipo “Kensington” ou similares), não sendo aceito adaptações, usinagens em geral, furações, emprego de adesivos, fitas adesivas ou quaisquer outros procedimentos ou emprego de materiais inadequados ou que visem adaptar forçadamente o equipamento ou suas partes para atingir esta funcionalidade; 13.6. Deve possuir base ou pés antiderrapantes; 13.7. Deve possuir ao menos as seguintes luzes de indicação na parte frontal do equipamento; 13.7.1. Uma para indicar que o equipamento está ligado; 13.7.2. Uma para indicar a atividade do disco rígido. 13.8. Deverá ser aplicado logo oficial da contratante, com área de impressão mínima de 3,00 x 2,72 cm, através de sistema de gravação direta como aplicação em Laser, não sendo admitido o uso de adesivagem, serigrafias ou adaptações semelhantes. A gravação deverá ser feita no gabinete visando medidas de segurança. O processo deverá ser comprovado pelo fabricante que será feita em processo fabril. 14. Fonte 14.1. Fonte de alimentação externa, com chaveamento automático de tensão na faixa 100-240V e 50/60 Hz; 14.2. Com potência máxima de 130W, com eficiência energética de, no mínimo, 89%; 14.3. Com comprimento mínimo de 2m entre a tomada e o plugue no equipamento; 14.4. Deve vir acompanhado de cabo de alimentação com plug tripolar em conformidade com a norma NBR 14136. 15. Teclado 15.1. Teclado com conjunto de no mínimo 104 teclas com teclado numérico e teclas de função na posição horizontal e acima das teclas numéricas/alfanuméricas; 15.2. Compatibilidade com o padrão ABNT2; 15.3. Conector padrão USB, sem o uso de adaptadores; 15.4. A impressão sobre as teclas deverá ser do tipo permanente, não podendo apresentar desgaste por abrasão ou uso prolongado; 15.5. O teclado deverá possuir a cor predominantemente preta, grafite ou cinza; 15.6. Deverá ser sem fio (wireless); 15.7. Resistente a derramamento de líquidos; 15.8. Regulagem de altura na parte traseira; 15.9. As teclas Insert, Home, PageUp, Delete, End e PageDown deverão estar dispostas na orientação Horizontal, não sendo aceitas na orientação Vertical; 15.10. SEM retroiluminação; 15.11. As teclas deverão ser de perfil baixo e silencioso; 15.12. Regulagem de altura na parte traseira; 15.13. Deverá usar o mesmo receptor sem fio e a mesma embalagem do mouse. 16. Mouse 16.1. Tecnologia óptica com resolução mínima de 1.000 dpi; 16.2. Deve possuir 2 (dois) botões para seleção de objetos (click) e 1 (um) tipo scrollwheelpara rolagem; 16.3. Deve ser ambidestro (simétrico); 16.4. Conector padrão USB, sem o uso de adaptadores; 16.5. O mouse deverá possuir a cor seguindo os padrões do teclado; 16.6. Deverá ser sem fio (wireless); 16.7. Deverá possuir sensor de LED ou Laser; 16.8. Deverá usar o mesmo receptor sem fio e a mesma embalagem do teclado. 17. Sistema Operacional 17.1. O microcomputador deverá ser entregue com licença de uso original do sistema operacional corporativo Windows nas versões 11, Professional, com licença de uso e mídia de instalação física ou via internet; 17.2. O equipamento e todos os seus periféricos deverão ser compatíveis com o sistema operacional Windows nas versões 11, Professional; 17.3. O sistema operacional deverá vir pré-instalado de fábrica; 17.4. A licença de uso deve ser gravada na memória flash da BIOS, possibilitando a leitura quando feita a reinstalação do Sistema Operacional. 17.5. A licitante deverá declarar em sua proposta, no campo “Descrição Detalhada do Objeto Ofertado” a versão completa do Sistema Operacional ofertado. 18. Qualidade 18.1. O equipamento deverá ser acondicionado em material apropriado que garanta a integridade do produto; 18.2. O equipamento deverá pertencer a linha corporativa do fabricante, não sendo aceito equipamentos destinados ao uso doméstico; 18.3. O fabricante deverá disponibilizar na Internet, na página de especificação técnica do modelo ofertado, atualizações de BIOS, drivers e aplicativos desenvolvidos pelo fabricante; 18.4. As unidades do equipamento deverão ser entregues devidamente acondicionadas em embalagens individuais adequadas, que utilizem materiais recicláveis (identificada), de forma a garantir a máxima proteção durante o transporte e a armazenagem; 18.5. Deverá apresentar na proposta Partnumber dos equipamentos, acessórios e componentes, sujeito a desclassificação. ITENS QUE DEVERÃO SER FORNECIDOS COM O MICROCOMPUTADOR 19. Trava tipo Kensington, com 2 (duas) chaves. 20. Mousepadcom superfície adequada para utilização do mouse óptico. 21. Adaptador tipo HDMI para VGA ou Display Port para VGA, em conformidade com uma das portas ofertadas no equipamento. DA GARANTIA EXIGIDA 22. Garantia total DO FABRICANTE do equipamento mínima de 12 (doze) meses, válida dentro do território nacional, contada a partir da data do recebimento do mesmo pela FZEA. 22.1. O atendimento no período coberto pela garantia descrita acima inclui mão de obra, peças, com atendimento local, e em caso de necessidade de manutenção fora das dependências da FZEA, transportes e seguros também se aplicam à mesma garantia, sem nenhum ônus adicional à FZEA; 22.2. A empresa fabricante do microcomputador deverá comprovadamente dispor de um número telefônico e/ou de serviço de chat em seu site para suporte técnico e abertura de chamados técnico; 22.3. Todos os drivers para os sistemas operacionais suportados devem estar disponíveis para download no sítio site do fabricante do equipamento; 22.4. A licitante arrematante deverá apresentar o certificado de garantia do fabricante do equipamento no ato de entrega da documentação; 22.5. O fornecedor se responsabilizará pelo transporte (ida e volta) do equipamento em caso de manutenção em garantia, caso a assistência técnica não seja na cidade de Pirassununga, SP; 22.6. O prazo para retorno do equipamento em garantia não deverá ser superior a 15 (quinze) dias corridos, contados a partir da retirada do equipamento. DOCUMENTAÇÃO PARA SER APRESENTADA ANTES DA HOMOLOGAÇÃO, CABENDO SOMENTE À LICITANTE ARREMATANTE 23. Certificado de garantia, informando que o fabricante irá prestar a garantia solicitada, conforme especificado neste edital. 23.1. Caso a garantia seja prestada por assistência técnica devidamente credenciada, apresentar declaração do fabricante comprovando as mesmas. Apresentar declaração do fabricante destinado a este órgão e este processo. 24. Certificações 24.1. O fabricante do microcomputador deve possuir Certificado ISO 9001 de qualidade; 24.2. O fabricante do microcomputador deve possuir Certificado ISO 45001, para garantia de conformidade com o Sistema de Gestão de Segurança e Saúde Ocupacional (SGSSO) que visa proteger e assegurar que os colaboradores de uma organização tenham um ambiente de trabalho saudável e seguro; 24.3. O fabricante do microcomputador deve fazer parte do consórcio DMTF, sendo comprovado no sítio https://www.dmtf.org/about/list; 24.4. Deve possuir declaração de conformidade com padrões de compatibilidade eletromagnética, CISPR 22/EN 55022, IEC 61000, emitida por laboratório nacional ou internacional; 24.5. O microcomputador deve possuir certificação TCO, assegurando que o mesmo atenda a critérios rigorosos em todas as fases do ciclo de vida do dispositivo, desde sua fabricação até o descarte, incluindo fabricação socialmente responsável, responsabilidade ambiental, design ergonômico e usabilidade; 24.6. Deverá ser fornecida ferramenta para gerenciamento de energia do equipamento; deve possuir declaração de conformidade com padrões de segurança elétrica, IEC 60950/EM 60950, emitida por laboratório nacional ou internacional ou relatório de avaliação de conformidade nos moldes da portaria 170/2021 vigente do INMETRO; 24.7. Deverá ser apresentada certificação Energy Star® 6.0 (ou mais atual), através do site www.energystar.gov ou apresentar relatório técnico de ensaios de conformidade de consumo de energia, emitido por laboratório de ensaio acreditado pela Coordenação Geral de Acreditação (CGCRE) do INMETRO, de acordo com a norma NBR/ISO IEC 17025. Tal certificação deverá ser apresentada para o computador; 24.8. O equipamento ofertado deve estar em conformidade com o padrão RoHS (Restriction of Hazardous Substances), isso é, ser construído com materiais que não agridem o meio ambiente; 24.9. O equipamento ofertado deve estar em acordo com as normas de emissão de ruídos para ambientes de escritório, ISO 7779 e ISO 9296; 24.10. Certificado Ubuntu Certified para sistemas Linux: deverá apresentar comprovação do site do fabricante: https://ubuntu.com/certified. Não será aceito comprovação via declaração do fabricante do equipamento. 24.11. Certificação PPB – Processo Produtivo Básico – para o fabricante do equipamento, em conformidade com a Lei Federal no. 11.077, de 30/12/2004, comprovado através do site https://inovacaodigital.mcti.gov.br/leiDeInformatica/empresasHabilitadas; 24.12. Por se tratar de compra de microcomputadores e não componentes, somente serão aceitos equipamentos de marcas registradas, efetivamente cadastradas no país como fabricantes de microcomputadores. A proponente deverá apresentar em suas propostas o(s) documento(s) que comprove(m) o registro no INPI da marca ("Marca Registrada") dos equipamentos oferecidos; 24.13. O fabricante deverá comprovar que não possui atividade potencialmente poluidora e utilizadora de recursos ambientais: aquelas relacionadas no Anexo VIII da Lei nº 6.938, de 1981, e também aquelas que, por força de normas específicas, estejam sujeitas a controle e fiscalização ambientais; O Fabricante do equipamento ofertado deverá possuir a Certificação IBAMA referente a Qualidade Ambiental, em conformidade a Instrução Normativa IBAMA Nº 6 DE 15/03/2013 (Federal). 25. Condições Gerais 25.1. Não serão aceitos, sob quaisquer pretextos, produtos que não atendam aos requisitos preestabelecidos. Assim, as empresas que cotarem devem estar cientes das especificações de seus produtos. 25.2. Quando requerido, os equipamentos devem ser homologados pela ANATEL e o certificado deverá ser fornecido junto à documentação técnica dos equipamentos ofertados no ato do pregão; 25.3. O equipamento deve possuir manuais (em português ou inglês) de todos os dispositivos e softwares que acompanham o conjunto; 25.4. A documentação exigida deve ser publicada e mantida pela empresa fabricante dos equipamentos em sistema informatizado de livre acesso, ou seja, sem necessidade de credenciais, usuário, senhas ou códigos específicos para acesso, disponível em página web da mesma: 25.4.1. Ficha técnica: ficha com dados técnicos do equipamento; 25.4.2. Manual de uso: instruções gerais para a utilização do equipamento; 25.4.3. Manual de serviço: instruções técnicas para manutenção, remoção, reposição de peças, configuração avançada, e análise técnica/resolução de problemas; 25.4.4. Manual de funcionalidades da ferramenta de diagnóstico; 25.4.5. A documentação deve estar disponível em, no mínimo, uma (1) das seguintes línguas: Português Brasileiro ou Inglês; 25.4.6. A documentação deve ser disponibilizada, no mínimo, em formatos PDF e/ou HTML; 25.5. A licitante deverá declarar em sua proposta, no campo "Descrição Detalhada do Objeto Ofertado", o link exato de todos os documentos solicitados. 26. Apresentação de no mínimo um atestado emitido por pessoa jurídica de direito público ou privado, comprovando que a proponente fornece/forneceu bens compatíveis com os objetos da licitação; 26.1. O documento deverá ser emitido em papel timbrado, com assinatura, identificação e telefone do emitente; 26.2. O(s) atestado(s) deverá(ão) apresentar em sua totalidade uma quantidade mínima igual a 50% ao ofertado neste item; 26.3. Apenas serão aceitos certificados que incluam garantia on-site. 27. Autorização para intervenção técnica no equipamento durante o período de garantia, sem revogação da validade desta, a ser feita por técnicos habilitados da FZEA, seja para inspeção, instalação de interfaces, memória ou unidades de disco adicionais. 27.1. No caso de instalação, feitas por técnicos habilitados pela USP, de interfaces, memória ou unidades de disco adicionais, a garantia desses componentes será dos respectivos fornecedores, não onerando o fornecedor do microcomputador; 27.2. O equipamento não deverá conter lacres nas tampas, peças, conectores, módulos de memória, parafusos, enfim, em nenhuma parte removível.</t>
-  </si>
-  <si>
-    <t>Comutador de sinais HDMI, novo e sem uso anterior, com as seguintes características: 1.1. Tipo: Matriz HDMI 2x1; 1.2. Com suporte completo a HDMI 1080p; 1.3. Com pelo menos 2 Entradas e 1 Saída HDMI; 1.4. Com entrada para fonte de alimentação 110-220V (não incluída); 1.5. Com botão de seleção de entrada. 2. É recomendável que os equipamentos não contenham substâncias perigosas como mercúrio (Hg), chumbo (Pb), cromo hexavalente (Cr(VI)), cádmio (Cd), bifenil polibromados (PBBs), éteres difenil-polibromados (PBDEs) em concentração acima da recomendada na diretiva RoHS (Restriction of Certain Hazardous Substances). 3. Garantia total DO FABRICANTE do equipamento mínima de 1 (um) ano – 12 (doze) meses –, válida dentro do território nacional, contada a partir da data do recebimento do mesmo pela FZEA; 3.1. O atendimento no período coberto pela garantia descrita acima inclui mão de obra, peças e em caso de necessidade de manutenção fora das dependências da FZEA, transportes e seguros também se aplicam à mesma garantia, sem nenhum ônus adicional à FZEA. 3.2. A licitante arrematante deverá apresentar o certificado de garantia do fabricante do equipamento no ato de entrega da documentação. 3.3. O fornecedor se responsabilizará pelo transporte (ida e volta) do equipamento em caso de manutenção em garantia, caso a assistência técnica não seja na cidade de Pirassununga, SP. 3.4. O prazo para retorno do equipamento em garantia não deverá ser superior a 15 (quinze) dias corridos, contados a partir da retirada do equipamento.</t>
-  </si>
-  <si>
-    <t>Suporte para monitor novo e sem uso anterior, com as seguintes especificações: 1.1. Para 2 (dois) monitores de vídeo LED e LCD de 13” a 27”; 1.2. padrão VESA 100x100mm, sendo aceitos outras medidas; 1.3. Confeccionado em aço carbono, alumínio (opcional) e plástico; 1.4. Articulado de mesa; 1.5. Fixação por morsa; 1.6. Com acabamento em pintura eletrostática; 1.7. Na cor preta; 1.8. Fabricado de acordo com as normas NBR/ABNT vigentes; 1.9. Suportando peso mínimo de 8 (oito) kg; 1.10. Com regulagem de altura em todo pedestal; 1.11. Permitindo inclinação dos dois monitores em 180 graus; 1.12. Permitindo rotação dos dois monitores em 360 graus. DA GARANTIA EXIGIDA 2. Garantia total DO FABRICANTE do equipamento mínima de 1 (um) ano – 12 (doze) meses –, válida dentro do território nacional, contada a partir da data do recebimento do mesmo pela FZEA; 2.1. O atendimento no período coberto pela garantia descrita acima inclui mão de obra, peças e em caso de necessidade de manutenção fora das dependências da FZEA, transportes e seguros também se aplicam à mesma garantia, sem nenhum ônus adicional à FZEA. 2.2. A licitante arrematante deverá apresentar o certificado de garantia do fabricante do equipamento no ato de entrega da documentação. 2.3. O fornecedor se responsabilizará pelo transporte (ida e volta) do equipamento em caso de manutenção em garantia, caso a assistência técnica não seja na cidade de Pirassununga, SP. 2.4. O prazo para retorno do equipamento em garantia não deverá ser superior a 15 (quinze) dias corridos, contados a partir da retirada do equipamento. 3. ITENS QUE DEVERÃO SER FORNECIDOS COM O EQUIPAMENTO Parafusos para instalação.</t>
+    <t>Projetor multimídia, novo e sem uso anterior, com as seguintes características: Brilho de 3.800 lumens; Resolução nativa mínima de 1280x800 (WXGA); Contraste mínimo de 16.000:1; Tecnologia 3 LCD; Zoom manual de 1,2x; Foco manual; Capacidade de projeção de imagens de 33” até 320”; Compatível com NTSC/PAL-M/SECAM; Correção de trapézio vertical em + ou – 30º; Ventilador com ruído máximo de 28/37 dB; Conexões de entrada/saída: 1X USB-A, 1 USB-B, 1 LAN, 2 HDMI, 2 VGA, 1 RS-232C, 1 Wireless Port opcional; Alimentação de energia 110/115 V e 220/240 V; Peso máximo de 2,8 Kg; Dimensões aproximadas: 302 X 87 X 249 MM (L X A X P); Modo de projeção frontal e teto; Lâmpada com duração estimada de 8.000 (oito mil) horas ou mais no modo normal e 17.000 horas em modo Eco; Suportando resolução de entrada de 1600x900 ou superior; Suporte a 1 bilhão de cores ou mais.</t>
+  </si>
+  <si>
+    <t>Fone de ouvido, novo e sem uso anterior, com as seguintes especificações: Tipo headphone sem fio (wireless); Corpo em plástico, na cor preta, ergonômico; Bateria tipo Lithium‑Ion Polymer, equivalente ou superior; Com microfone acoplado; Sensibilidade do driver a 1KHz1mw de 95dB ou maior; Com driver entre 32 e 40mm; Impedância de 32 ohms; Peso máximo de 260g; Tempo de reprodução de 30 horas ou mais; Padrão bluetooth HFP V1.6, HSP V1.2, A2DP V1.2, AVRCP V1.4 ou mais recentes; Potência de emissão de bluetooth 0‑4 dbm ou maior; Acolchoado, com almofada em couro PU; Com haste ajustável; Tipo headset sem led, com LED indicativo de “Power On”; Com proteção auricular; Conexão via bluetooth; Frequência 20 a 20.000hz.</t>
+  </si>
+  <si>
+    <t>Monitor de vídeo 23”, novo e sem uso anterior, com as seguintes especificações: Tecnologia LED, ou LED IPS; Diagonal nominal de 23 polegadas ou maior; Resolução em Full HD de 1920x1080, ou superior, em 100Hz ou mais; Tempo de resposta de 8ms, ou menor; Controles de ajuste digitais, tipo OSD em Português; Em formato Widescreen; 1 ou mais entradas de sinal digital em conector HDMI ou Display Port; Tela antirreflexiva; Brilho de 250 CD/m², ou maior; Contraste de 1.500:1, ou maior; Ângulo de visão de 170º na horizontal e 170º na vertical; Capacidade de reprodução de 16,7 milhões de cores; Compatibilidade Plug &amp; Play; Fonte de alimentação suportando tensões AC 100‑230 V; Furação VESA 100x100 na parte traseira.</t>
+  </si>
+  <si>
+    <t>Fonte de alimentação para microcomputador, novo e sem uso anterior, com as seguintes características: Padrão ATX 2.2 ou superior; Potência nominal real mínima de 250 W RMS; Com chave “on/off” traseira; Seleção de tensão 110/115 V e 220/240 V, automática; Possui pelo menos 4 conectores SATA, 1 conect. P4 quadrado (12 V adicional), 1 ATX de 24 pinos; Pelo menos 1 ventoinha de 120 mm ou 140 mm; Eficiência de carga de, pelo menos, 80%; Proteção contra sobretensão, sobrecarga de energia, curto‑circuito; Tecnologia para redução de ruídos.</t>
+  </si>
+  <si>
+    <t>Dispositivo de armazenamento (pen drive), novo e sem uso anterior, com as seguintes especificações: Conexão USB 3.2 ou superior; Capacidade mínima de 128GB; Com interface dual (Micro‑USB – USB‑C – e USB 3.0 ou superior), podendo usar adaptadores; Conector metálico (não de plástico).</t>
+  </si>
+  <si>
+    <t>Notebook com mochila de transporte, novo e sem uso anterior, com as seguintes especificações: Processador 10ª geração Intel Core i7 ou superior (8‑núcleos, 16‑threads, 4.6 GHz turbo, Passmark ≥ 20.000); BIOS UEFI 2.1; Memória RAM mínimo 16 GB DDR4 (2.666 MHz, extensível a 32 GB); Armazenamento SSD M.2 NVMe 1 TB; Interface gráfica integrada ou dedicada com 4 GB GDDR5; Tela 15.6” Full HD 1920x1080, retro‑iluminada, touch; Conexões: 1 HDMI, 1 USB‑C 3.2, 2 USB‑A 3.2, 1 USB‑A 2.0, 1 RJ‑45, 1 áudio, 1 cartão SD; Teclado ABNT2, sem fio, com teclado numérico; Mouse óptico, sem fio, 1.000 DPI; Gabinete com estrutura leve 2,3 kg, pesos ≤ 2,6 kg; Sistema operacional Windows 11 Pro, licenciado; Garantia mínima 12 meses, 90 dias para lâmpada do projetor.</t>
+  </si>
+  <si>
+    <t>Webcam, novo e sem uso anterior, com as seguintes especificações: Interface USB 2.0 ou superior; Resolução HD 1280x720 ou superior; 60 fps ou maior; Cobertura áudio, vídeo e foto; Saída microfone e fone de ouvido; LED indicador “Power On”.</t>
+  </si>
+  <si>
+    <t>Monitor de vídeo 27”, novo e sem uso anterior, com as seguintes especificações: Tecnologia LED IPS, ou mais moderna; Resolução 3840x2160 (4k) 60Hz ou mais; Tempo de resposta 4‑5 ms; Brilho ≥ 250 cd/m²; Contraste ≥ 1.300:1; Ângulo de visão ≥ 178º; Tela antirreflexiva; 1 HDMI, 1 DisplayPort, 1 mini‑DP opcional; 1 áudio saída; Fonte de alimentação suportando 100‑230 V; Furação VESA 100x100.</t>
+  </si>
+  <si>
+    <t>Microcomputador, novo e sem uso anterior, com as seguintes especificações: Processador Intel Core i9 14900F ou superior (24 cores, 32 threads, 4.6 GHz turbo, Passmark ≥ 46.000); Memória RAM 32 GB DDR5 (3.200 MHz, extensível a 128 GB); SSD M.2 NVMe 1 TB + HDD 4 TB SATA; Fonte 850 W RMS, modular, 80+; Placa‑mãe chipset B760M, 4 slots DDR5, 2 M.2 NVMe, 1PCI‑e; GPU dedicada RTX 5070 ou superior (GPU 12 GB, 40K CUDA); Sistema operacional Windows 11 Pro; Gabinete arquitetura ATX, 12.6 L, pé anti‑derrapante; Certificações ISO 9001, ISO 45001, RoHS, Energy Star, etc.; Garantia mínima 12 meses.</t>
+  </si>
+  <si>
+    <t>Microcomputador tipo mini‑PC, novo e sem uso anterior, com as seguintes especificações: Processador Intel Core i5‑13500 ou AMD Ryzen 5 7600H (6‑núcleos, 12 threads, 3.6 GHz turbo, Passmark ≥ 22.000); Memória RAM 16 GB DDR4 (3.200 MHz, extensível a 64 GB); SSD M.2 NVMe 500 GB; Fonte 130 W RMS, 80+; Placa‑mãe com 5 portas USB (2x3.2, 1x2.0, 1xC, 1xOTG), 1 port HDMI, 1 DisplayPort; Sistema operacional Windows 11 Home; Gabinete USFF (≤ 1,2 L); Garantia mínima 12 meses.</t>
+  </si>
+  <si>
+    <t>Comutador de sinais HDMI, novo e sem uso anterior, com as seguintes características: Matriz 2x1 HDMI 2.0, capacidade de entrada/saída 1080p; 2 entradas HDMI, 1 saída HDMI; Botão de seleção de entrada; Conector de alimentação 110–220 V.</t>
+  </si>
+  <si>
+    <t>Suporte de monitor, novo e sem uso anterior, com as seguintes especificações: Suporte para 2 monitores de 13” a 27”; Padrão VESA 100x100 mm; Material aço carbono ou alumínio; Acabamento pintura eletrostática; Cor preta; Capacidade mínima de 8 kg; Ajuste de altura, inclinação (180º), rotação (360º) em pedestal; Furação para suspensão de cabo; Peso ≤ 8 kg.</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -622,7 +622,7 @@
         <v>1004.45</v>
       </c>
       <c r="F4">
-        <v>53235.85000000001</v>
+        <v>53235.85</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -845,7 +845,7 @@
         <v>252.6600000000001</v>
       </c>
       <c r="F12">
-        <v>2779.260000000001</v>
+        <v>2779.26</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
